--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AA59B0-CC67-409B-8FAA-AC527D291985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123383F8-DC75-4CD4-996D-C6434EC10675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1260" windowWidth="23085" windowHeight="15480" xr2:uid="{17A6BAE6-540A-486D-9BFB-68CA2A267526}"/>
+    <workbookView xWindow="6000" yWindow="1440" windowWidth="19515" windowHeight="14340" activeTab="1" xr2:uid="{17A6BAE6-540A-486D-9BFB-68CA2A267526}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="140">
   <si>
     <t>SMCI</t>
   </si>
@@ -1142,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DFEAC7-9117-4E2A-B771-8666F18C05E6}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -1428,11 +1428,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E35F5-17AD-4508-80FC-2AB3B5BCCD05}">
   <dimension ref="A1:BD94"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2806,155 +2806,155 @@
       </c>
       <c r="S16" s="8">
         <f>R16*(1+$T28)</f>
-        <v>406071.52600000001</v>
+        <v>414358.7</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" ref="T16:BD16" si="47">S16*(1+$T28)</f>
-        <v>397950.09548000002</v>
+        <v>414358.7</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="47"/>
-        <v>389991.09357040003</v>
+        <v>414358.7</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="47"/>
-        <v>382191.271698992</v>
+        <v>414358.7</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="47"/>
-        <v>374547.44626501214</v>
+        <v>414358.7</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="47"/>
-        <v>367056.49733971187</v>
+        <v>414358.7</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="47"/>
-        <v>359715.36739291763</v>
+        <v>414358.7</v>
       </c>
       <c r="Z16" s="8">
         <f t="shared" si="47"/>
-        <v>352521.06004505925</v>
+        <v>414358.7</v>
       </c>
       <c r="AA16" s="8">
         <f t="shared" si="47"/>
-        <v>345470.63884415803</v>
+        <v>414358.7</v>
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="47"/>
-        <v>338561.22606727487</v>
+        <v>414358.7</v>
       </c>
       <c r="AC16" s="8">
         <f t="shared" si="47"/>
-        <v>331790.00154592935</v>
+        <v>414358.7</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="47"/>
-        <v>325154.20151501073</v>
+        <v>414358.7</v>
       </c>
       <c r="AE16" s="8">
         <f t="shared" si="47"/>
-        <v>318651.11748471053</v>
+        <v>414358.7</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="47"/>
-        <v>312278.09513501631</v>
+        <v>414358.7</v>
       </c>
       <c r="AG16" s="8">
         <f t="shared" si="47"/>
-        <v>306032.53323231597</v>
+        <v>414358.7</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="47"/>
-        <v>299911.88256766961</v>
+        <v>414358.7</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="47"/>
-        <v>293913.6449163162</v>
+        <v>414358.7</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="47"/>
-        <v>288035.37201798987</v>
+        <v>414358.7</v>
       </c>
       <c r="AK16" s="8">
         <f t="shared" si="47"/>
-        <v>282274.66457763006</v>
+        <v>414358.7</v>
       </c>
       <c r="AL16" s="8">
         <f t="shared" si="47"/>
-        <v>276629.17128607747</v>
+        <v>414358.7</v>
       </c>
       <c r="AM16" s="8">
         <f t="shared" si="47"/>
-        <v>271096.58786035591</v>
+        <v>414358.7</v>
       </c>
       <c r="AN16" s="8">
         <f t="shared" si="47"/>
-        <v>265674.65610314877</v>
+        <v>414358.7</v>
       </c>
       <c r="AO16" s="8">
         <f t="shared" si="47"/>
-        <v>260361.1629810858</v>
+        <v>414358.7</v>
       </c>
       <c r="AP16" s="8">
         <f t="shared" si="47"/>
-        <v>255153.93972146409</v>
+        <v>414358.7</v>
       </c>
       <c r="AQ16" s="8">
         <f t="shared" si="47"/>
-        <v>250050.86092703481</v>
+        <v>414358.7</v>
       </c>
       <c r="AR16" s="8">
         <f t="shared" si="47"/>
-        <v>245049.8437084941</v>
+        <v>414358.7</v>
       </c>
       <c r="AS16" s="8">
         <f t="shared" si="47"/>
-        <v>240148.84683432421</v>
+        <v>414358.7</v>
       </c>
       <c r="AT16" s="8">
         <f t="shared" si="47"/>
-        <v>235345.86989763772</v>
+        <v>414358.7</v>
       </c>
       <c r="AU16" s="8">
         <f t="shared" si="47"/>
-        <v>230638.95249968497</v>
+        <v>414358.7</v>
       </c>
       <c r="AV16" s="8">
         <f t="shared" si="47"/>
-        <v>226026.17344969127</v>
+        <v>414358.7</v>
       </c>
       <c r="AW16" s="8">
         <f t="shared" si="47"/>
-        <v>221505.64998069743</v>
+        <v>414358.7</v>
       </c>
       <c r="AX16" s="8">
         <f t="shared" si="47"/>
-        <v>217075.53698108348</v>
+        <v>414358.7</v>
       </c>
       <c r="AY16" s="8">
         <f t="shared" si="47"/>
-        <v>212734.0262414618</v>
+        <v>414358.7</v>
       </c>
       <c r="AZ16" s="8">
         <f t="shared" si="47"/>
-        <v>208479.34571663255</v>
+        <v>414358.7</v>
       </c>
       <c r="BA16" s="8">
         <f t="shared" si="47"/>
-        <v>204309.75880229991</v>
+        <v>414358.7</v>
       </c>
       <c r="BB16" s="8">
         <f t="shared" si="47"/>
-        <v>200223.56362625392</v>
+        <v>414358.7</v>
       </c>
       <c r="BC16" s="8">
         <f t="shared" si="47"/>
-        <v>196219.09235372883</v>
+        <v>414358.7</v>
       </c>
       <c r="BD16" s="8">
         <f t="shared" si="47"/>
-        <v>192294.71050665426</v>
+        <v>414358.7</v>
       </c>
     </row>
     <row r="17" spans="2:56" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3418,12 +3418,8 @@
       <c r="Q28" s="17">
         <v>-0.02</v>
       </c>
-      <c r="S28" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="T28" s="17">
-        <v>-0.02</v>
-      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="17"/>
       <c r="Y28" s="11"/>
     </row>
     <row r="29" spans="2:56" ht="15" x14ac:dyDescent="0.25">
@@ -3434,12 +3430,8 @@
       <c r="Q29" s="19">
         <v>0.1</v>
       </c>
-      <c r="S29" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="T29" s="19">
-        <v>0.08</v>
-      </c>
+      <c r="S29" s="18"/>
+      <c r="T29" s="19"/>
       <c r="Y29" s="11"/>
     </row>
     <row r="30" spans="2:56" ht="15" x14ac:dyDescent="0.25">
@@ -3450,12 +3442,8 @@
       <c r="Q30" s="23">
         <v>2115</v>
       </c>
-      <c r="S30" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="T30" s="20">
-        <v>2115</v>
-      </c>
+      <c r="S30" s="18"/>
+      <c r="T30" s="20"/>
     </row>
     <row r="31" spans="2:56" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="13"/>
@@ -3465,12 +3453,8 @@
       <c r="Q31" s="23">
         <v>167</v>
       </c>
-      <c r="S31" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T31" s="20">
-        <v>167</v>
-      </c>
+      <c r="S31" s="18"/>
+      <c r="T31" s="20"/>
     </row>
     <row r="32" spans="2:56" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="21"/>
@@ -3481,13 +3465,8 @@
         <f>NPV(Q29,U15:BD15)</f>
         <v>9076101.4320216347</v>
       </c>
-      <c r="S32" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="T32" s="22">
-        <f>NPV(T29,C16:BD16)</f>
-        <v>2543571.270801465</v>
-      </c>
+      <c r="S32" s="18"/>
+      <c r="T32" s="22"/>
     </row>
     <row r="33" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="13"/>
@@ -3497,12 +3476,8 @@
       <c r="Q33" s="23">
         <v>55933</v>
       </c>
-      <c r="S33" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="T33" s="23">
-        <v>55933</v>
-      </c>
+      <c r="S33" s="18"/>
+      <c r="T33" s="23"/>
     </row>
     <row r="34" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="13"/>
@@ -3513,13 +3488,8 @@
         <f>Q32/Q33</f>
         <v>162.26738118859413</v>
       </c>
-      <c r="S34" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="T34" s="24">
-        <f>T32/T33</f>
-        <v>45.475323526388088</v>
-      </c>
+      <c r="S34" s="18"/>
+      <c r="T34" s="24"/>
     </row>
     <row r="35" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="13"/>
@@ -3529,12 +3499,8 @@
       <c r="Q35" s="25">
         <v>32</v>
       </c>
-      <c r="S35" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="T35" s="25">
-        <v>32</v>
-      </c>
+      <c r="S35" s="18"/>
+      <c r="T35" s="25"/>
     </row>
     <row r="36" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="13"/>
@@ -3545,13 +3511,8 @@
         <f>Q34/Q35</f>
         <v>5.0708556621435665</v>
       </c>
-      <c r="S36" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="T36" s="27">
-        <f>T34/T35</f>
-        <v>1.4211038601996278</v>
-      </c>
+      <c r="S36" s="26"/>
+      <c r="T36" s="27"/>
     </row>
     <row r="37" spans="2:28" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="28" t="s">
